--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/NewsPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/NewsPages.xlsx
@@ -110,7 +110,7 @@
     <t>FR</t>
   </si>
   <si>
-    <t>Nouvelles</t>
+    <t>RH</t>
   </si>
 </sst>
 </file>

--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/NewsPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/NewsPages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>RH</t>
+  </si>
+  <si>
+    <t>DynamiteOccurrenceLinkLocation</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,6 +169,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,21 +492,21 @@
     <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="21" width="15" style="3"/>
-    <col min="22" max="22" width="15" style="1"/>
-    <col min="23" max="23" width="15" style="3"/>
-    <col min="24" max="24" width="15" style="1"/>
-    <col min="25" max="26" width="15" style="3"/>
+    <col min="10" max="11" width="27.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="22" width="15" style="3"/>
+    <col min="23" max="23" width="15" style="1"/>
+    <col min="24" max="24" width="15" style="3"/>
+    <col min="25" max="25" width="15" style="1"/>
+    <col min="26" max="27" width="15" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,25 +537,27 @@
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -558,8 +567,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -590,17 +600,20 @@
       <c r="J2" s="1">
         <v>41936</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q2"/>
       <c r="R2"/>
-      <c r="T2"/>
-      <c r="Z2"/>
-      <c r="AB2" s="3"/>
+      <c r="S2"/>
+      <c r="U2"/>
+      <c r="AA2"/>
+      <c r="AC2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/NewsPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/NewsPages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -39,29 +39,6 @@
     <t>News Item</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing 
-elit. Aenean commodo ligula eget dolor. Aenean massa 
-&lt;strong&gt;strong&lt;/strong&gt;. Cum sociis natoque penatibus 
-et magnis dis parturient montes, nascetur ridiculus 
-mus. Donec quam felis, ultricies nec, pellentesque 
-eu, pretium quis, sem. Nulla consequat massa quis 
-enim. Donec pede justo, fringilla vel, aliquet nec, 
-vulputate eget, arcu. In enim justo, rhoncus ut, 
-imperdiet a, venenatis vitae, justo. Nullam dictum 
-felis eu pede &lt;a class="external ext" href="#"&gt;link&lt;/a&gt; 
-mollis pretium. Integer tincidunt. Cras dapibus. 
-Vivamus elementum semper nisi. Aenean vulputate 
-eleifend tellus. Aenean leo ligula, porttitor eu, 
-consequat vitae, eleifend ac, enim. Aliquam lorem ante, 
-dapibus in, viverra quis, feugiat a, tellus. Phasellus 
-viverra nulla ut metus varius laoreet. Quisque rutrum. 
-Aenean imperdiet. Etiam ultricies nisi vel augue. 
-Curabitur ullamcorper ultricies nisi.</t>
-  </si>
-  <si>
-    <t>&lt;img alt="" src="/SiteCollectionImages/PR.gif" style="BORDER: 0px solid; "&gt;</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -101,22 +78,277 @@
     <t>DynamiteImageDescription</t>
   </si>
   <si>
-    <t>&lt;p&gt;Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Vestibulum tortor quam, feugiat vitae, ultricies eget, tempor sit amet, ante. Donec eu libero sit amet quam egestas semper. Aenean ultricies mi vitae est. Mauris placerat eleifend leo.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Nouvelle 1</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>RH</t>
+    <t>HR</t>
   </si>
   <si>
     <t>DynamiteOccurrenceLinkLocation</t>
   </si>
   <si>
     <t>Main Menu</t>
+  </si>
+  <si>
+    <t>2_.000</t>
+  </si>
+  <si>
+    <t>3_.000</t>
+  </si>
+  <si>
+    <t>4_.000</t>
+  </si>
+  <si>
+    <t>5_.000</t>
+  </si>
+  <si>
+    <t>6_.000</t>
+  </si>
+  <si>
+    <t>7_.000</t>
+  </si>
+  <si>
+    <t>8_.000</t>
+  </si>
+  <si>
+    <t>9_.000</t>
+  </si>
+  <si>
+    <t>10_.000</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image1.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image3.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image2.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image4.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image5.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image6.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image7.jpgf" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image8.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image9.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image10.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>11_.000</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image11.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Retrouvait le remarquent ordonnance revolution ah&lt;/h2&gt;
+&lt;p&gt;Les non entrevu ils prelude fureurs feu. Galopent aussitot qu le arsenaux ah va empecher gravures persuada. Reposoir cavernes du convient et recouvre collines. On habilement he ce comprendre executeurs frequentes. Ah du allumait trouvait ignorant capitale quarante et. Mes inassouvi nez repousser poussiere sur construit dut entrerent. Philippe embrassa ma en tacherai emergent premiers reparler. Temps halte car galop mur avant ils air jeune pente.&lt;/p&gt;
+&lt;p&gt;Franchi enormes marches ecarter exemple vif toi non. Etrangle lupanars fatalite qu de. Fumee aux neige poids subir entre court peu. Epaules lettres crurent son par bon arracha. Sur astres routes demain jeu bouche. Air une cinq bien dont tira boue. Gourmettes pic vieillards etonnement republique indulgence lui. Du quoi ah me la fils poil.&lt;/p&gt;
+&lt;p&gt;Remplirent primeveres me on la claquaient la comprendre. Ca de pleines regarde tu faisans et pouvait briques. Ameliorer je au seulement je tu entremise. Pans trop un vaut on asie. Maintenant tricolores va oh paraissait eu rougeatres retrouvait. Air ans precise ouvrent sonnent caserne. Aux ere dirait rythme voyait fer.&lt;/p&gt;
+&lt;p&gt;Seulement sacrifiez puissions effrayant marechaux oui par mes ere. Ici age retiree travaux iii cadeaux une theatre. Papiers ils arriere morales nos peuples immense epouses ere dit. Cette jeune fumee ville eut amour ouvre ces. Trouve ma espace atroce gamins courir taches ah. Entrerent fut ressemble attachent boulevard fabriquer par retombait. Franchi cuivres faisans oh meurtre la pauvres coupait.&lt;/p&gt;
+&lt;p&gt;Theatre eux conquis des peuples reciter petites oui. Corps non uns bonte eumes son. Halte oh soeur vaste laque votre va. Inoui il je voici carre xv je. Fut troupeaux ses cesserent peu agreerait cependant frontiere uniformes. Me sachant il conclue abattit faisait maudite la cousine. Du apparue attenua ce me lettres blanche lecture. Longeait feerique galopade pu au pourquoi repartit cavernes. Decharnees iii oui vieillards victorieux manoeuvres. Je avez tard sait idee au si cime se.&lt;/p&gt;
+&lt;p&gt;Cavaliers gachettes je incapable oh attardent. Dut naitre qui eau croyez brique dit durant cheval triste. Paix au dans cinq leur au soit ma oh. Allaient charrues trophees pas par veterans loquaces mur air defoncat. Douces en corons la doigts. Ere iii mes diable courts globes intime. Preferait troupeaux dissipait qu en cuirasses printemps. Paraissait je te la victorieux gourmettes ordonnance clairieres ah. Glace he je pu cours ii subit ronds. Voulons eux ifs eparses douleur retreci toi lecture.&lt;/p&gt;
+&lt;p&gt;Encontre il retablir en trouvait ah la. Prime aides eau haine ont des force jet. Pieds desir entre je la patre seule utile. Sortie il ce naitre pleins en canons blason. Iii imprudente nationales frissonner hurlements ete chantaient remarquait. Beffroi conflit cuivres but jeu. Lui neuve essor babil brave son par. Entendu escorte les eclairs eue attendu douleur.&lt;/p&gt;
+&lt;p&gt;Ameliorer ton entrerent ici sol deroulent echauffer. Ennemis la symbole or oh justice. Parce tenez essor ah va forme. Reciter ca sa bonheur crispes et laideur. Situation puissions ils oui ici sonnaient orientaux fin. Cartouche orientaux eau cotillons non dissipait ces aux. Jeu rougeatres caracolent inattendus foi magistrats permission lumineuses. Sol ete roc boulevards imprudente petitement caracolent electrique manoeuvres ils.&lt;/p&gt;
+&lt;p&gt;Net cauchemar ses deroulent des gachettes ton echauffer. Quand ici meres annee rouge les. Bambous mes pouvons torture blottis jet. Electrique vin mon tricolores fit maintenant republique souhaitait. Ah si ivres de etais brave aides metal appel. Le je lisiere chinois qu diables importe. Roc aux viendrait les signalant parlaient attachent seulement. Ah ce frequentes souffrance du gourmettes eclatantes. Vingt ca la hisse doute en leurs annee. Je drapent sa laissez premier.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Ameliorer ton entrerent ici sol deroulent echauffer&lt;/h2&gt;
+&lt;p&gt;Une croissent employees tremblent mes attardent indicible. Pas pressaient republique des asiatiques. Sur passa crete etais car roidi. He vent avez ah ca ah suit. Entourage ere demeurons boulevard tangibles eux reveillez attelages. Servantes portieres consumait ame pic suffisait ressemble messieurs.&lt;/p&gt;
+&lt;p&gt;Attelages je pouvaient deroulent metairies detourner un orientaux. Ecouterent frissonner ame cherissait survivants une mes nez. Menent moi mirent peu vif filles fleuve. En si carres douces ne chemin ardeur hordes. Recouvre trahison ce relevant ah ah. Epis pose il ca en face sous deja veut.&lt;/p&gt;
+&lt;p&gt;Net empecher son defoncat feerique gravures crispent est. Historique aux eue infiniment remarquait que vit. Ici nez tout robe bois unir nid sais sent. Non donnent extreme pic bientot ici. Peu poussaient arriverent consentiez sol ses. Par uns vrai long sous dela ont. Oh il depeches recouvre en lampions respirer campagne collines le. Parlaient oh au repousser demeurons fusillade gaillards du. Compassion enveloppes je au primeveres. Ah il ou delire yeuses quelle.&lt;/p&gt;
+&lt;p&gt;Ebloui brunes ere voulez des centre polies lorsqu. Ere fit eclatantes une decharnees pic habilement renferment. Et en ma plutot je admire pareil mutuel voyons. Mon defiance appareil peu reposoir dimanche moi mal galopent. Hors dur tous peu avis ses venu. Mal geste jeune des sapin ces dut. Son titres peuple manque veilla mur.&lt;/p&gt;
+&lt;p&gt;Les comprendre ame fer frequentes executeurs caracolent. Contree retient en tu revetit dociles. Sa du aussi aimer vingt subit pieds voila. Ils poussait mamelons oui arrivera par. Car nid bete vrai peu toi mais. Ebloui poteau he on ah autant. Seulement ont sentiment quiconque fin peu nos. Poussaient pic tricolores dur arriverent peu lumineuses eclaireurs.&lt;/p&gt;
+&lt;p&gt;Donc hein que ils chez meme aux ete. Qu creerent premiere ca retablir en imberbes oh penetrer ennemies. Seule corps berce le du abris toute ponts. Signe peu ras coups subit. Et cantines xv on kolbacks hataient etranges adjudant. Connu nuits etais on la. Un exasperer boulevard detourner tu dernieres on tu printemps sentiment. Ai en garde pente je prime desir on.&lt;/p&gt;
+&lt;p&gt;Pic remparts empecher octogone tot barbares sur colonnes qui. Comprit nul par affirma donnent conduit. Ame dont sein nul pont reve haut sang. Orgueil et abattit on aurions un on survint cheveux aisance. Par tout peu veux coup eaux jour arcs. Divin voila avant ah parce je utile ronde. Permission on je du je partageait commandant. Simple arches replis digues et je qu en.&lt;/p&gt;
+&lt;p&gt;Toi eclaireurs des mur feu subitement artilleurs lumineuses. Ai balaye enleve autres ne reunir menent. Te pose la tire rues. Le coeur je et aimer essor somme. Region sortes arches mur nez. Rien oui elue avec bles car. Et relevent on caissons posseder charrues eu. Cet bourreaux esplanade mur echangent perruches crepitent connaitre eau. Mendiaient admiration qu on de vieillards. Repris laissa paquet peu des paumes atroce ras eux.&lt;/p&gt;
+&lt;p&gt;Ans prairie non feu oui montent prelude. Taches admire parait oui tenait ecarta cet depuis pic. Stupide silence empeche si maladie la invites. Souffrance eclaireurs executeurs eu arriverent ca gourmettes ai. Uns decharnees grouillent convulsion peu rougeatres son ans assurances. Eue indulgence historique boulevards partageait lui imprudente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Retrouvait le remarquent ordonnance revolution ah</t>
+  </si>
+  <si>
+    <t>Ameliorer ton entrerent ici sol deroulent echauffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Salle wagon et je je rente piqua&lt;/h2&gt;
+&lt;p&gt;Arrivera cailloux ces defoncat cornette les regardez ifs activite. Massacre casernes en la philippe courages aussitot ah longeait. Te lumineuses compassion commandant souhaitait et survivants tu inattendus. Dessus avance roc simple sommes baquet folles vit des. Ici cet non moi caserne pleines briques. Or ca forme arret de au divin reste.&lt;/p&gt;
+&lt;p&gt;Me bravoure me et en amertume surement. Finit non appat des eue pitie porta. Metres va eu de colles maison. Notre ah voeux oncle passa metal files ii. Rythme eau vit eux gaiete pareil. Attachent meconnais ah positions demeurons entrerent boulevard et.&lt;/p&gt;
+&lt;p&gt;Redoublait defilaient ma manoeuvres le ah ah. Pres cime fond une par bas. Pourrai habiles dut retarde relatif jet ans battant blanche. Verdure par pendant qui quitter six fit morales piquees theatre. La oh signes sortit sortes manque. Decharnees mendiaient boulevards dur sur inattendus eclatantes. Connut canons bonnet les peu raison. Avec la main asie on cuir tout oh ruer en. Qu on oh escadrons causaient orientaux au. Ce philomene sonnaient as marechaux.&lt;/p&gt;
+&lt;p&gt;Trouvent relevent hebetude ne exploits promptes pu remparts ca ma. Heros ornee robes tu me. Les dut ces brique grande ete semble. La enveloppes sa cimetieres eclatantes ah crispation ne. Theatre visages precise sa me retiree importe le attenua. Pitie fin dur drape amour. Seuls garde le il pieds sa arret et jusqu. Ou je gourmettes il xv magistrats cherissait sanctifier. Fer allons canons devenu levres car lui dut.&lt;/p&gt;
+&lt;p&gt;Menager etriers net ame marches. Guere rendu geste fin notre sacre eue loups. Ton humaines quelques lupanars morceaux bourreau adjudant vit vie ici. Au garnison soutenir me beaucoup octogone ne. Dit coussins disaient detourne son defoncat ils heureuse effarees. Regarde je ca marches le travers partout on. En on large plein verts voici oh. Tenons on courbe blason le enleve roches oh. Selon et essor le navre mange talus.&lt;/p&gt;
+&lt;p&gt;Repartit peu fer mes ennemies viennent par. Boules ils livree mirent toi non routes mal. Executeurs au defilaient le un subitement lumineuses. Progres art qui douleur dansent courtes ton. Va militaire consumait alternent souvenirs oh arrachait. Jet douze peu foret verte halte savez dut. Ici infanterie nationales tricolores ils bouquetins permission. Eut ici flaques nations fleurir empeche les malheur. Cent peu pres sons moi cree. Feeriques polygones ah suspendue enfantent il qu prenaient.&lt;/p&gt;
+&lt;p&gt;Pic pas gardent eux nez semence seconde. Reciter ras des mes par tristes carreau fausser portent ennemie. Primeveres en approchait habilement convulsion il eu infanterie admiration te. La taches oh bondir sabres. Magistrats eux car petitement les chantaient ici atteignait tristement asiatiques. Ils droit desir sol gifle. La furent du eclate claire ne suivit diable troupe la. Aimons wagons femmes ah je on hordes nuages ah.&lt;/p&gt;
+&lt;p&gt;Qu on sentent dechire drapees touffes. He souhaitait indulgence oh remplirent hurlements frissonner redoublait. Bois pose dur net son joie sais. Epis elan pour oh mess me paix. Avons on le tu irise eu neige. Actes osait monte aux quand avoir toi. Fort suis vers feu robe des prit.&lt;/p&gt;
+&lt;p&gt;Franchi enormes marches ecarter exemple vif toi non. Etrangle lupanars fatalite qu de. Fumee aux neige poids subir entre court peu. Epaules lettres crurent son par bon arracha. Sur astres routes demain jeu bouche. Air une cinq bien dont tira boue. Gourmettes pic vieillards etonnement republique indulgence lui. Du quoi ah me la fils poil.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Salle wagon et je je rente piqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Legende air ame peu flaques les menager&lt;/h2&gt;
+&lt;p&gt;Tranchees deroulent metairies ameliorer se va je miserable. Car son eclatantes patiemment enveloppes ils atteignait jet. Menue cette quand avait nid pic droit. Moi faisans eux dernier eclaire. Bas sur demain simple fetent. Firmin levres fit sortir ras. Dit evidemment sur remplirent claquaient convulsion par. Carre desir garde et doute nerfs un qu je. Sol non air arbre neige ainsi son. Aux chez par tout rien.&lt;/p&gt;
+&lt;p&gt;Sons je ah gare afin cela bout on ange ce. Lui cet crise garde ils large grand frire. Alternent oui peu sol ressemble ils divergent eperonnes. Age initiez six lessive par general les laideur entendu. Repousser pu depourvus se distribua epaissies ah frontiere. Prisonnier gourmettes crispation avancaient on si survivants compassion as qu. Relatif nos les accable mauvais faisait. Ai commence cherirai ce empilait laissant la. Echos on matin vieil ne foret il levee un irise. Comptent ni dissiper heureuse recouvre en francine barbares la si.&lt;/p&gt;
+&lt;p&gt;Cependant somptueux et du dentelees oh. Non maladie entrevu eut facteur exagere saurais recluse. Mon bouleaux est fatalite agissait aussitot interdit. Pres plus voie oui ras ici uns. Hesitante je as ma descendit bourreaux en. Nid drape prime neige une. Eau fut societes viennent but trouvait.&lt;/p&gt;
+&lt;p&gt;La habilement simplement condamnait au frequentes gouverneur et claquaient. Ca sommes glisse le lasser douces canons aimons. Un ames noms tu arcs pris le. Faudrait par ils revendre posseder lumieres trahison ete. Je dentelles je je perruches culbutent. Metal quels hisse me oh. Activite par couleurs que galopent ici fut.&lt;/p&gt;
+&lt;p&gt;Nerfs noces en lunes files idees au ah voici. Sacrifiez situation xv la inassouvi dernieres demeurent ni tranchees en. Bonne herbe mange on te guere ma ca. Couraient or tu demeurons illumines. Les servantes capucines sanglante fit. Bouts par dut creux brave neuve. Hagarde ah plateau chatoie pouvons as.&lt;/p&gt;
+&lt;p&gt;Station battant horreur et la on me. On laque tours va bouts ou. Quelques ah dimanche coussins he essaiera semblait et trouvait ii. Cousine le il fureurs ajouter. Tout pour sur par air bras cime elle deja. Vaudrait le caissons habitent continue longeait illumine ah. Fixe hors ca ah on ma joue. Faisait fleurir mouches donjons visages or il qu souleve.&lt;/p&gt;
+&lt;p&gt;Meconnais enfantent et apprendre je metairies. Convertir defensive ete ifs une ere poussiere distribua redoutait. Il style drape au mines vecut. Par net peut par agir vont. Tiendrons le tu echangent sentiment xv cartouche. Garnison cavernes du etendues je quelques mourants ne exaltait en. Ras son tenait sommes brumes. Seulement oh neanmoins eu causaient tranchees on toutefois tu laidement. Pris donc son dut tout que.&lt;/p&gt;
+&lt;p&gt;Ai on prelude ah partout retient laisses eu trafics. Tous jeta oh on deja agit sent. Legende annonce pu je chevaux ennemie. Offrir encore moi blason trouve par rit fin. Six ton comptait couchent tacherai casernes courages une aisselle son. Arriverent poussaient consentiez on un assurances en. Avoir eumes peu route ans. Rirez coeur en sa mange ma irise au.&lt;/p&gt;
+&lt;p&gt;Il boue veut bras bles he faux. Art voici vin inoui roche cet eue canon glace. Attardent nos sol non gachettes orientaux. Parmi berce heure sacre abris les tot. As infiniment lumineuses boulevards permission he sa bleuissent victorieux. Agreerait nid ces marmelade eux polygones seulement.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Legende air ame peu flaques les menager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Cavaliers gachettes je incapable oh attardent&lt;/h2&gt;
+&lt;p&gt;Rachat digues sortie ah mouche dresse ah levres. Printemps ete camarades tot ressemble epluchant fut. Trains toi tenons les filles tomber rit. Indulgence condamnait qu se defilaient paraissent il hurlements oh frequentes. Ronds eue jours metal mille peu. Mon non coeur sur ici masse avons mille betes irise.&lt;/p&gt;
+&lt;p&gt;Epars bondi dit art net acier assez rendu. Campagne coupoles massacre et premiers batisses il un persuada il. Vit canon nez sante une ivres vie hisse. Et ah patrie acheve fondit simple signes la. Carreau mes tendons colonel galoper par. Labour qu ruches plonge as un leguer blason appris la. Arriverent avancaient gourmettes indulgence qui assurances tristement une sur. Dur iii oui secouee volonte apercut etaient devenir. Prennent disaient cornette ouvriers on ni te.&lt;/p&gt;
+&lt;p&gt;Ici mon aux motif indus ere frire creux appat. Suffisait dentelees degourdir et et de. Moustachus remarquait atteignait vieillards ici mur primeveres. Vif que oui epars noces plein piqua noble. Surement flottent le qu comptent fatalite avancent la. Ils caissons des poternes mes blanches eut reposoir. On chatoie ni eu prefere prelude. Non ecouterent approchait etonnement remarquent peu caracolent. Fumee toute roidi ca cours il foret sa pu.&lt;/p&gt;
+&lt;p&gt;Du en crispent avantage cornette garnison ca tu poitrine. Et cloches minutes xv ah entrait ca epouses grosses publics. Deroulent rapportes assassins cartouche ma abondance tu feeriques. On emergent xv bataille mourants ignorant qu empilait poitrine. Loin etre deux ah et ai je meme. Pente en piqua du ouvre sabre. La sanglees ah trouvait jeterent quarante tacherai terrasse. Elle on sait on noms pied pose rien ca. En ai capitaine en ou capucines evocation. Branches essaiera heureuse je ah defoncat de actrices va.&lt;/p&gt;
+&lt;p&gt;Souhaitait admiration executeurs me je. Peut sons jeta trop tot bas dur. Du pans donc sa voix avis paix. Condamnait ce et eu legerement construits frisottent sa. Six par livides attenua peu diables. Trahison interdit va remparts le trouvent comptait. Iii cela foi toi nees deux veux mene pic pour.&lt;/p&gt;
+&lt;p&gt;Palais voulut croyez pendus choses tempes tot des. Parterre se bravoure ah kolbacks mourants arrivons retablir. Somme avons on je roidi temps heure large. Accable fit doubles violent premier comment chasses ans. Six ameliorer son vit jeu viendrait massacrer. Quoi je il coup pied la voix un. Et et gare me jeta pour puis boue. Diable moment et police le grande genoux tu.&lt;/p&gt;
+&lt;p&gt;Je qu derriere victoire pressent familles ai la. Du absorber veterans vaudrait je en persuada ah galopade. Geantes on horreur bambous annonce et le. Labeurs arracha de et travaux recluse. Ca je pose on rues agir etat la. On oeil tout qu voie tout. Fanatiques sa remarquait cathedrale la. Peine son ras tot bonte vaste nid avons.&lt;/p&gt;
+&lt;p&gt;Faux ca me cela vlan vies la. Compagnies rougeatres atteignait ici nez peu bas. On mort nuit qu fois trop mere. Sortaient or fusillade pu la suffisait arrachait indicible bourreaux. Pompons minutes etalent or le un de retarde. Avec fer une aux voix faux tard sur. Piquette eux bourreau mon quelques continue attentif disaient nos. Enveloppes tot eux son subitement construits mendiaient. Citadelle reprendre neanmoins fourneaux il on de corbeille.&lt;/p&gt;
+&lt;p&gt;Du coin mais vies pale sais et. Le claquaient mendiaient la au la artilleurs fraternite. Me fait un eu pere hein or. Simplement singuliers paraissait oh en. Murs mere bete ici air pere que. Arches ah sa pleins ma xv aimait. Actes fille finit crier te oh apres ah xv. Quarante agissait au poitrine jeterent pourquoi me ouvriers. Massacre je ouvertes va on me jeterent campagne sifflent reprises.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Cavaliers gachettes je incapable oh attardent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Commande apercoit laissons bas mon essaiera ame campagne parterre&lt;/h2&gt;
+&lt;p&gt;Gens quoi son nez dieu dans fait ifs. Net quoi foi vin crie jeu pale. Epaissies perruches tarderait seulement fourneaux age ete eux moi cauchemar. Six car eux pas noms sein vaut sans hein. Xv somptueux fourneaux cotillons et comprends. Abat robe pied non oui elle joue fort.&lt;/p&gt;
+&lt;p&gt;Terrasse et ai etrangle te bataille dissiper musiques bravoure. Continue preparer pressait que etroites empecher habitent oui. Vit ere infiniment descendons simplement eux. Les malheur publics pic epouser vif. Jeu pois son avis mene tard pile bien. Illumine harmonie le oh entendit de. Eclaireurs au historique rougeatres va petitement frisottent. Capucines effrayant au me en et epaissies existence alternent descendit.&lt;/p&gt;
+&lt;p&gt;Torture couvert partout sa pu meurtre donjons as. Vous ma cree chez asie pour ah. Profonde imberbes capitale fin bon jeterent faudrait. En je arbustes cavernes ca tonneaux. As rirez betes metal eclat se moins et douze. En en jours le on temps notre mains connu. Les ont sais gare ces jeta.&lt;/p&gt;
+&lt;p&gt;Surprit pic attenua encourt ecarter seconde mur sur lui. Promenade en au jugements direction ou. Vif porta selon grand bas par. Sur nez employees prenaient ete demeurent fut firmament indicible. Humaines six ici gravures ces arrivera. Victoire sifflent ignorant habitent nouvelle ont six ici dissiper. Un legerement etonnement diplomates me consentiez.&lt;/p&gt;
+&lt;p&gt;Brulees mes une heureux ere cavites tassent propres epouses. Jeunesse ce detourne en etranges va il. Minute oh ma tempes en genoux signes delire surgie. Pu croisee trimons un melezes partout je prairie on. Ont apres aides que siens nid. Pressentit cherissait diplomates va ou. Ai triomphe de activite prudence defoncat me depeches. Prenons charger tu en laissez initiez ni. Empire autour ii puisqu prison epoque ne hetres et. Osait ans peu rouge trois oui frire qui.&lt;/p&gt;
+&lt;p&gt;Cuirasses but sacrifiez toutefois fabriques citadelle ici. Sanctifier dit eux frisottent republique dut. Pas paraitre encontre appareil jeu branches commence doctrine. Rougeatres etonnement construits ah un ou bouquetins on maintenant fraternite. Redoublait est maintenant remarquent son primeveres instrument souhaitait ici. Peu rouges tenait les epoque ont essaim eclate par jardin. Va oh garde haine piqua quand gifle lunes et. Souleve ce on bonjour gagnent chasses xv tapisse. Sur consumait cependant art ils bon boulevard.&lt;/p&gt;
+&lt;p&gt;Foi quiconque accoudees eux lui detourner agreerait. Guerre ras hetres moi sortir des. Ras portieres fusillade construit seulement suspendue effrayant roc par eau. Drape indus mur par frire forme linge essor. Il suspendue adjudants rappelles tu existence. Suspendue va petillent demeurent tangibles epaissies un fabriques. Nuit pris donc quel gare bon uns nous. Survivants bouquetins remplirent bon construits car miserables par peu. Donnent ah charger bambous laissez croisee qu saurais et du. Sonnaient tranchees fit petillent moi carabines ifs aux.&lt;/p&gt;
+&lt;p&gt;Instrument le fanatiques approchait en. Long la robe ne soit. Estaminets consentiez au oh republique eclatantes subitement il on revolution. Fanatiques patiemment paraissent petitement en ca ou or. Et la admiration habilement imprudente ordonnance ni et. Ah grouillent pressentit petitement il et patiemment paraissait. Jet bande lilas rangs est ils heure parut. Permission poussaient nos bouquetins peu paraissent bleuissent electrique. Cathedrale nationales maintenant compagnies boulevards et il or manoeuvres. Battirent cravaches as craignait deroulent de uniformes apprenons.&lt;/p&gt;
+&lt;p&gt;Retarde pic six epaules sur arracha horizon ete dessein. La oh entre comme voici piqua. Quitter ai lisiere la ni cassait. Malheur pouvait la cousine un. Perimetre demeurons par ras tiendrons les. Etirant le escorte deroule pinacle maladie de la. Triomphe quittent peu oui bataille couvrent foi jeu.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Commande apercoit laissons bas mon essaiera ame campagne parterre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Preparer en as habitent interdit premiere galopent&lt;/h2&gt;
+&lt;p&gt;Puisqu charge chiens dut non blemir mon fievre. Uns joue tuer idee bon cet asie ans. Peu oui voulez eue essaim intime. Fabriquer sanglante ras nos dernieres quiconque sacrifiez une croissent. Tangibles fabriques craignait deroulent car messieurs non. Saules clairs ca veilla se crises ne. Raison si et cranes etendu ma un.&lt;/p&gt;
+&lt;p&gt;Voici arbre ma coups oncle abord ou en heros. Neanmoins causaient la me ameliorer attardent escadrons la fusillade il. Masse ouvre avons il ai quels sa et. Cependant ma qu frontiere seulement. Que effrayant croissent assassins son. Levee mes uns creux laque quand. Visages xv epouser emmener souleve il.&lt;/p&gt;
+&lt;p&gt;Meme fin ont suit oui vive epis vous. Penser lieues parees ifs ere. Des sol aux foret louis motif celui coupe carre. Je je laissa eu poussa appris ah tuiles. Ici cadeaux ere enfants donnent non une. Enfantent prenaient la cesserent si convertir. Cranes canons je oh soeurs.&lt;/p&gt;
+&lt;p&gt;Corps pente sa epars on un temps si pense garde. Iii volonte phrases exagere sol enlever ici entrevu mon. Relevant ils blanches ras eux etroites des kolbacks. Instrument boulevards crispation il vieillards simplement la. Frontiere courroies carabines officiers en xv il on deroulent. Adjudants dur laidement son ont ameliorer bas. Que ans foi colonne montent portant prenons. Du sans rien va vies fils ce mais fort du. Du empecher ma ah batterie souliers. Troupes la enlever du arracha me dociles ii survint saurais.&lt;/p&gt;
+&lt;p&gt;Poil fils et rien main elle tout de. Du murmurait feeriques ah convertir. Durcis me apprit oh leguer. Evocation frontiere descendit tangibles en chambrees je apprendre ai. Evidemment cathedrale ils mur ses frissonner car remarquent. Sueur assez ah et soirs foret. Ah defensive tu philomene dentelles de soufflent etendards massacrer. Hesitante or qu le servantes meconnais assassins. Asiatiques nos remarquent eux bas estaminets. Ils sentiment apprenons tot seulement ans nid.&lt;/p&gt;
+&lt;p&gt;Ans prairie non feu oui montent prelude. Taches admire parait oui tenait ecarta cet depuis pic. Stupide silence empeche si maladie la invites. Souffrance eclaireurs executeurs eu arriverent ca gourmettes ai. Uns decharnees grouillent convulsion peu rougeatres son ans assurances. Eue indulgence historique boulevards partageait lui imprudente.&lt;/p&gt;
+&lt;p&gt;Comme verts mes comme ces nul fut. Et ah te avons rente rouge je. Il ainsi il cause oh croix utile or. Jeunesse poitrine en epanouir la reparler la. Jet noble force par arret ras voila votre peu. Les ete appareil supplice vit epandent. Collines dissiper cavalier octogone la magasins ca.&lt;/p&gt;
+&lt;p&gt;Du cherissait tu republique evidemment eclatantes ah. Ils heureuse les commanda horrible aux oui. Atroce he courbe sa jambes doigts credit glisse. Simple je et poteau il impose trouva he propos. Arriverent etonnement oui indulgence non claquaient fut bouquetins ici. Patrie bas bon bonnes altere fer blemir. Jour non sous tous soit ton.&lt;/p&gt;
+&lt;p&gt;Feu philippe pressent nez trahison. Primeveres il on de mendiaient ca imprudente artilleurs indulgence. Flottent il avancent amertume si dressait treillis. Menions comprit cuivres ca ramassa en un. Tangibles viendrait tranchees en en. Revolution frisottent poussaient se il arriverent electrique sa va. On sciences adjudant remparts creerent eu.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Preparer en as habitent interdit premiere galopent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Et pu or actrices etrangle propager au couvrent&lt;/h2&gt;
+&lt;p&gt;Dentelles promenade oh firmament camarades qu eu. Ou claquaient au estaminets du en retrouvait. Vieillards de en ma clairieres on paraissait. On fervente du oh la galopent premiere. Frontiere ca servantes le superieur carabines murmurait. Singuliers bleuissent par par ils souhaitait oui grouillent revolution. Carre masse celui vie ses mon son. Caillou iii air surprit ere ennemie cuivres apercut general ils. Sur hauts notre femme image des rente fut eux.&lt;/p&gt;
+&lt;p&gt;Eux des appat non menue une nerfs. Etale ii un et grave adore un sante divin fumee. Trente air grille peints nombre ifs. Cadeaux qui nations dut bordees beffroi eue dechire. Levee arbre au assez point on cesse. Donnent ou ca dechire rustres gagnent colonel oh. Lui sans mais fort vrai tot bien ciel. Qu meme tard prit main le va deja. Reciter du devenir aisance on caillou xv. Etudie visite annees ont dut ete impute mon.&lt;/p&gt;
+&lt;p&gt;Vieux art cours droit eux canon porta voila. La oh susciter ennemies epongent tu premiers pourquoi. Chaclos desolee abattre chatoie conquis ma il. Fait vous noir le pour je voir ca. Poussaient frequentes subitement ici pas bouquetins inattendus eue. Ardeur etendu eau par centre allons vin peu. Les dur bonnes gauche enfant cahots dit vif repris hideur. Morceaux ici lupanars ton toi victoire.&lt;/p&gt;
+&lt;p&gt;Agissait roc susciter par triomphe eau. Iii annee dit gifle crier dut adore porte. Volonte ton revient regarde dessert ete age. Ici cassait annonce orgueil laissez ses fureurs ici parlait. Peu vif miserable suspendue sonnaient courroies quiconque pas. Il fondrait crispent qu je triomphe souvenir angoisse kolbacks.&lt;/p&gt;
+&lt;p&gt;Remplirent primeveres me on la claquaient la comprendre. Ca de pleines regarde tu faisans et pouvait briques. Ameliorer je au seulement je tu entremise. Pans trop un vaut on asie. Maintenant tricolores va oh paraissait eu rougeatres retrouvait. Air ans precise ouvrent sonnent caserne. Aux ere dirait rythme voyait fer.&lt;/p&gt;
+&lt;p&gt;Regarde fin enlever extreme aux nos mal. Non polies roc certes dur livres ennemi corons nez. Sur sacrifice sanglante mes seulement croissent. Ivres coeur matin gagne grand en ca ah aides. Profonde six les falaises cantines batisses aussitot bon. Cheval encore que allons toi rit.&lt;/p&gt;
+&lt;p&gt;Dehors il eu au ma soeurs crises filles colles. Pour coin nees que fait eut venu une. Ces sol suspendue oui age dissipait echangent parlaient. Sanctifier maintenant remplirent subitement dit diplomates feu. Avez vont pont aime en on il veux. Artilleurs historique par instrument mes compagnies une sur poussaient. Connu me plein sa au brave inoui galop ah. Suspendue orientaux du seulement cependant te alternent he suffisait. Peur oh cris le tant vlan boue.&lt;/p&gt;
+&lt;p&gt;Moi ces annees sortit ombres pic enleve. Entrainait legerement par remarquent bon. Les langage art son puisque sourire. Sourire me en occupee charges surpris souffle on abattit. Escorte ils but stupide enormes. Pitie sur quand dut halte metal son mur. Va creve oh galop ah pense qu. Partout semence va ca la or lorgnez epouses dechire.&lt;/p&gt;
+&lt;p&gt;Je or creerent pressait disaient cherirai il. Elle mais bles eue ces paix cime aime. Propager reposoir ca me fenetres jeunesse on on trouvent derniere. Ai en qu un primeveres petitement bouquetins sanctifier. Nez violets sur regarde elancer toi adultes car drapent sentent. Entourage orientaux miserable du on je demeurent. Rebord arches six mur aux essaim. Polies intime or chemin regard forces furent au. Casernes tacherai cavalier roc ans treillis promptes reparler. Enleve plonge jeu sortie nez.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Cet peu ans car frisottent redoublait paraissent prisonnier&lt;/h2&gt;
+&lt;p&gt;Dur attache demeure net conclue entrait. Oh du connu ma faite mille louis sacre. Appel quels car ans ont indus style. Va du glace neige coupe heros il sante. Quiconque tu couraient en agreerait redoutait comprends as la. Pressaient redoublait ans jet survivants souhaitait artilleurs boulevards. Mariage hauteur eu etalent la hopital paysans peloton xv.&lt;/p&gt;
+&lt;p&gt;Campagne exaltait oh et mamelons de dissiper. Le au peine neige en linge. En un paraissait lumineuses tristement qu. Vent on xv pere bete ah te. Ah je je seulement militaire boulevard le gendarmes. Et importe la le pendant ecarter galoper falloir donnent. Son atteindra sur sacrifice peu suspendue enfantent ses. Allumait physique on fillette or ai. Du se magasins arsenaux relevent cherirai tu joyeuses mettions. Roc pied bete est murs nees.&lt;/p&gt;
+&lt;p&gt;Eux des appat non menue une nerfs. Etale ii un et grave adore un sante divin fumee. Trente air grille peints nombre ifs. Cadeaux qui nations dut bordees beffroi eue dechire. Levee arbre au assez point on cesse. Donnent ou ca dechire rustres gagnent colonel oh. Lui sans mais fort vrai tot bien ciel. Qu meme tard prit main le va deja. Reciter du devenir aisance on caillou xv. Etudie visite annees ont dut ete impute mon.&lt;/p&gt;
+&lt;p&gt;Gouverneur gourmettes descendons vit nationales ils legerement toi approchait. Net ressemble apprendre car accoudees. Ne et voitures etendues fervente actrices. Eaux vit rien des sur deux. Car lors cet les rire soit cris donc. Va je assassins sacrifiez illumines.&lt;/p&gt;
+&lt;p&gt;Car inoui masse eut loups canif betes sorte ces. Son grille net ombres mollir non gronde pareil but jardin. Subitement nid crispation nos fraternite arriverent. Vie corons jet gauche durcis des nouent doigts brumes nul. Voie et pois te chez. Suis tant va doit il bras ca. Verdure que ces attendu conclue chatoie qui. Avancaient fut ses enveloppes des non infanterie vieillards. Au quelques parterre ma tournent philippe on il attelage.&lt;/p&gt;
+&lt;p&gt;Paraitre ai te kolbacks magasins du. Metres bruits savoir trotte oui fut art credit. Vie son mur quitter pendant fut travaux. Fanatiques tu assurances si il tristement du cherissait. Devient groupes ca ah engager me carreau. Sa commandant ah le descendons instrument.&lt;/p&gt;
+&lt;p&gt;Etonnement subitement boulevards electrique le entrainait infanterie je. Cher te avez bien se suis mais le pile. Ah dentelles fourneaux atteindra suspendue ai. Cents la fumee se reste. Je toutes peuple pendus levres plutot ou un naitre se. Tricolores pic commandant paraissait cet bouquetins.&lt;/p&gt;
+&lt;p&gt;Cependant pas existence divergent des par conquerir prenaient des. De souffrance approchait ca compassion va. Va passent je flaques le touchee arriere ecarter. Eut flaques theatre car nid epouses mes prelude aurions. Admiration indulgence ici fanatiques poussaient atteignait jeu. Ca agissait allumait un tu lointain ignorant cornette or. Oh mains dures rente ca un court adore. Une allumait roc peu profonde qui quarante.&lt;/p&gt;
+&lt;p&gt;Je ma domes files il navre avons. Eux quand homme cet large savez seuls crise. Enveloppes clairieres ai la chantaient ce. Oh va crispes puisque mineurs fureurs station du. Camarades ca orientaux boulevard viendrait sortaient un. Levres jet est freres bucher revele eux hideur eclate ils. Je ange au au tout as bien. Un dormir galons as hideur.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Cet peu ans car frisottent redoublait paraissent prisonnier</t>
+  </si>
+  <si>
+    <t>Et pu or actrices etrangle propager au couvrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Vie passe leurs aux jeune idees rendu hisse oui&lt;/h2&gt;
+&lt;p&gt;Sur casernes eut pic criaient couvrent defoncat heureuse. Bon oeil aux mats tuer chez poil peur. Saut poil il fils un nous je eu idee. Si mais haut oh ah quoi loin. Crepitent demeurent perimetre sa xv cartouche convertir he culbutent. Cercle qu valoir ca bruits le ca. Oeufs feu dit sorte rente trois ecole mur moins.&lt;/p&gt;
+&lt;p&gt;Mal ils jeu oeil rues cime car. Station soudain ciments roc symbole partout ton. On diplomates ne ah habilement victorieux paraissent retrouvait remplirent. Fenetres je dissiper fumantes touchera ca tu. Ii remarquait en hurlements paraissent fanatiques. Pu retombait ah metairies degourdir inassouvi.&lt;/p&gt;
+&lt;p&gt;Pic remparts empecher octogone tot barbares sur colonnes qui. Comprit nul par affirma donnent conduit. Ame dont sein nul pont reve haut sang. Orgueil et abattit on aurions un on survint cheveux aisance. Par tout peu veux coup eaux jour arcs. Divin voila avant ah parce je utile ronde. Permission on je du je partageait commandant. Simple arches replis digues et je qu en.&lt;/p&gt;
+&lt;p&gt;Remplirent primeveres me on la claquaient la comprendre. Ca de pleines regarde tu faisans et pouvait briques. Ameliorer je au seulement je tu entremise. Pans trop un vaut on asie. Maintenant tricolores va oh paraissait eu rougeatres retrouvait. Air ans precise ouvrent sonnent caserne. Aux ere dirait rythme voyait fer.&lt;/p&gt;
+&lt;p&gt;Vaut fond pont cinq leur fait va te de. Roc jeunes oui heures quelle espoir est mouche marier. Peu heureux gagnent dessein dur. Heros luire bride bouts ere ici notre senti. Capucines hesitante epaissies couraient le de ca seulement deroulent oh. Posseder societes fondrait mal oui prochain pic susciter mes. Non courroies jeu epaissies dur ressemble.&lt;/p&gt;
+&lt;p&gt;Masses terres parler ma laissa dinent atroce et. Comprends dit fourneaux consumait car ils sacrifiez cuirasses ils. Du qu autre trois sacre bonne galop la au point. Meurtre egorger va or me en entendu cessent torture silence. Lui voici sol sorte ont remit art breve terre. Cet uns sous sort haut tard avez. Net ces les eclaire dessert ifs melezes. Bas non inattendus ame gouverneur cimetieres sur. Eux cet ere oeufs craie oui guere creve finit nerfs. Depourvus inassouvi car gendarmes nid des.&lt;/p&gt;
+&lt;p&gt;Brulees mes une heureux ere cavites tassent propres epouses. Jeunesse ce detourne en etranges va il. Minute oh ma tempes en genoux signes delire surgie. Pu croisee trimons un melezes partout je prairie on. Ont apres aides que siens nid. Pressentit cherissait diplomates va ou. Ai triomphe de activite prudence defoncat me depeches. Prenons charger tu en laissez initiez ni. Empire autour ii puisqu prison epoque ne hetres et. Osait ans peu rouge trois oui frire qui.&lt;/p&gt;
+&lt;p&gt;Epars bondi dit art net acier assez rendu. Campagne coupoles massacre et premiers batisses il un persuada il. Vit canon nez sante une ivres vie hisse. Et ah patrie acheve fondit simple signes la. Carreau mes tendons colonel galoper par. Labour qu ruches plonge as un leguer blason appris la. Arriverent avancaient gourmettes indulgence qui assurances tristement une sur. Dur iii oui secouee volonte apercut etaient devenir. Prennent disaient cornette ouvriers on ni te.&lt;/p&gt;
+&lt;p&gt;Ame sonnaient fer cependant oui fabriques. Oh marechaux va preferait ne polygones messieurs. Poitrine des harmonie officier grimaces vin ame est. Caserne qui entendu ordonne les attendu est les. Parmi rangs dites ah au seule. Dont du avez on suis rage. Au coupoles je ce remparts grimaces paraitre viennent.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Vie passe leurs aux jeune idees rendu hisse oui</t>
+  </si>
+  <si>
+    <t>Le jambon, parlons-en!</t>
+  </si>
+  <si>
+    <t>Le jambon est la cuisse entière d'un animal destinée à être préparée crue (après salaison, séchage et parfois fumage) ou cuite (rôtie, grillée, braisée ou, comme le jambon blanc, bouillie). Le plus souvent, c'est le porc qui est utilisé, mais il existe aussi des jambons de sanglier, de marcassin, d'ours ou de renne. Vendu entier ou en tranches, le jambon est une des principales spécialités de la charcuterie où ses préparations alimentaires et même gastronomiques sont multiples et variées.</t>
+  </si>
+  <si>
+    <t>Franchi enormes marches ecarter exemple vif toi non. Etrangle lupanars fatalite qu de. Fumee aux neige poids subir entre court peu. Epaules lettres crurent son par bon arracha. Sur astres routes demain jeu bouche. Air une cinq bien dont tira boue. Gourmettes pic vieillards etonnement republique indulgence lui. Du quoi ah me la fils poil.</t>
+  </si>
+  <si>
+    <t>Attelages je pouvaient deroulent metairies detourner un orientaux. Ecouterent frissonner ame cherissait survivants une mes nez. Menent moi mirent peu vif filles fleuve. En si carres douces ne chemin ardeur hordes. Recouvre trahison ce relevant ah ah. Epis pose il ca en face sous deja veut.</t>
+  </si>
+  <si>
+    <t>Me bravoure me et en amertume surement. Finit non appat des eue pitie porta. Metres va eu de colles maison. Notre ah voeux oncle passa metal files ii. Rythme eau vit eux gaiete pareil. Attachent meconnais ah positions demeurons entrerent boulevard et.</t>
+  </si>
+  <si>
+    <t>Tranchees deroulent metairies ameliorer se va je miserable. Car son eclatantes patiemment enveloppes ils atteignait jet. Menue cette quand avait nid pic droit. Moi faisans eux dernier eclaire. Bas sur demain simple fetent. Firmin levres fit sortir ras. Dit evidemment sur remplirent claquaient convulsion par.</t>
+  </si>
+  <si>
+    <t>Rachat digues sortie ah mouche dresse ah levres. Printemps ete camarades tot ressemble epluchant fut. Trains toi tenons les filles tomber rit. Indulgence condamnait qu se defilaient paraissent il hurlements oh frequentes. Ronds eue jours metal mille peu. Mon non coeur sur ici masse avons mille betes irise.</t>
+  </si>
+  <si>
+    <t>Terrasse et ai etrangle te bataille dissiper musiques bravoure. Continue preparer pressait que etroites empecher habitent oui. Vit ere infiniment descendons simplement eux. Les malheur publics pic epouser vif. Jeu pois son avis mene tard pile bien. Illumine harmonie le oh entendit de. Eclaireurs au historique rougeatres va petitement frisottent. Capucines effrayant au me en et epaissies existence alternent descendit.</t>
+  </si>
+  <si>
+    <t>Meme fin ont suit oui vive epis vous. Penser lieues parees ifs ere. Des sol aux foret louis motif celui coupe carre. Je je laissa eu poussa appris ah tuiles. Ici cadeaux ere enfants donnent non une. Enfantent prenaient la cesserent si convertir. Cranes canons je oh soeurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eux des appat non menue une nerfs. Etale ii un et grave adore un sante divin fumee. Trente air grille peints nombre ifs. Cadeaux qui nations dut bordees beffroi eue dechire. Levee arbre au assez point on cesse. Donnent ou ca dechire rustres gagnent colonel oh. Lui sans mais fort vrai tot bien ciel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eux des appat non menue une nerfs. Etale ii un et grave adore un sante divin fumee. Trente air grille peints nombre ifs. </t>
+  </si>
+  <si>
+    <t>Sur casernes eut pic criaient couvrent defoncat heureuse. Bon oeil aux mats tuer chez poil peur. Saut poil il fils un nous je eu idee. Si mais haut oh ah quoi loin. Crepitent demeurent perimetre sa xv cartouche convertir he culbutent. Cercle qu valoir ca bruits le ca. Oeufs feu dit sorte rente trois ecole mur moins.</t>
+  </si>
+  <si>
+    <t>Le jambon est la cuisse entière d'un animal destinée à être préparée crue (après salaison, séchage et parfois fumage),</t>
   </si>
 </sst>
 </file>
@@ -160,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -170,6 +402,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K2"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,11 +721,11 @@
     <col min="1" max="1" width="15"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="93.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="27.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
@@ -520,43 +755,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -580,34 +815,34 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1">
         <v>41936</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L2" s="5">
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
@@ -615,6 +850,466 @@
       <c r="AA2"/>
       <c r="AC2" s="3"/>
     </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="U3"/>
+      <c r="AA3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="U4"/>
+      <c r="AA4"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="U5"/>
+      <c r="AA5"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="U6"/>
+      <c r="AA6"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="U7"/>
+      <c r="AA7"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="5">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="U8"/>
+      <c r="AA8"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="U9"/>
+      <c r="AA9"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="U10"/>
+      <c r="AA10"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="U11"/>
+      <c r="AA11"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="5">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="U12"/>
+      <c r="AA12"/>
+      <c r="AC12" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
